--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2168529.247016557</v>
+        <v>2166641.665500155</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>163.9206648785249</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>73.31370764131968</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.78742075103631</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>287.1295912089695</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>373.7802520889466</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.37301815328992</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>181.2178631822718</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>287.2841839626583</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686226</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>59.71215406761492</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94.16481274941218</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>42.31474834504479</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>101.2898147863545</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,7 +1819,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>161.6207090023092</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>121.6872846616448</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>51.44029960352438</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>101.2898147863548</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>48.70273379787692</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>112.2792196973223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>87.65220976162043</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>43.03801681746251</v>
+        <v>149.4433890341032</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>40.24272399146324</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571489</v>
+        <v>39.72583251028774</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523569</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
         <v>166.3443044298322</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3509,10 +3509,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.7744035713887</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2531.572661847995</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2277.810876486087</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1946.747989142516</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1593.979333872402</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1220.513575611322</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>830.3742436355105</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240413</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3261428644633</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>995.9506728057374</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="C5" t="n">
-        <v>995.9506728057374</v>
+        <v>1249.542876750359</v>
       </c>
       <c r="D5" t="n">
-        <v>995.9506728057374</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>995.9506728057374</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>584.9647680161299</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y5" t="n">
-        <v>995.9506728057374</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4659,34 +4659,34 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2351.934357141989</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.468598880909</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761944</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482875</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359518</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355864</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064341</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064341</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,16 +5072,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5121,19 +5121,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>410.874530133163</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.771599890052</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.9798268587604</v>
+        <v>192.3330639344396</v>
       </c>
       <c r="C13" t="n">
-        <v>527.0436439308535</v>
+        <v>192.3330639344396</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185177</v>
+        <v>192.3330639344396</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1456.174100512402</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1456.174100512402</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U13" t="n">
-        <v>1167.045461725961</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V13" t="n">
-        <v>1167.045461725961</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W13" t="n">
-        <v>877.6282916890001</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="X13" t="n">
-        <v>877.6282916890001</v>
+        <v>192.3330639344396</v>
       </c>
       <c r="Y13" t="n">
-        <v>877.6282916890001</v>
+        <v>192.3330639344396</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U16" t="n">
-        <v>911.9576038464864</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V16" t="n">
-        <v>657.2731156405996</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W16" t="n">
-        <v>657.2731156405996</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="X16" t="n">
-        <v>429.2835647425823</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="Y16" t="n">
-        <v>429.2835647425823</v>
+        <v>199.5300356889268</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>514.9365816937659</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>514.9365816937659</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>514.9365816937659</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>367.0234881113728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>220.1335406134624</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>220.1335406134624</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>874.9271131227915</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609662</v>
+        <v>620.2426249169047</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240056</v>
+        <v>330.8254548799441</v>
       </c>
       <c r="X19" t="n">
-        <v>696.5850465240056</v>
+        <v>330.8254548799441</v>
       </c>
       <c r="Y19" t="n">
-        <v>696.5850465240056</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>465.7659634441654</v>
+        <v>199.5300356889271</v>
       </c>
       <c r="C22" t="n">
-        <v>296.8297805162587</v>
+        <v>199.5300356889271</v>
       </c>
       <c r="D22" t="n">
-        <v>296.8297805162587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E22" t="n">
-        <v>296.8297805162587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>755.183133481126</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>465.7659634441654</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X22" t="n">
-        <v>465.7659634441654</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y22" t="n">
-        <v>465.7659634441654</v>
+        <v>199.5300356889271</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,13 +5987,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,10 +6005,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>357.5203921878147</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119729</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227927</v>
+        <v>898.7925182488386</v>
       </c>
       <c r="V25" t="n">
-        <v>874.9271131227927</v>
+        <v>644.1080300429518</v>
       </c>
       <c r="W25" t="n">
-        <v>585.509943085832</v>
+        <v>354.6908600059912</v>
       </c>
       <c r="X25" t="n">
-        <v>357.5203921878147</v>
+        <v>354.6908600059912</v>
       </c>
       <c r="Y25" t="n">
-        <v>357.5203921878147</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,13 +6212,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6239,34 +6239,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>437.6964226305955</v>
+        <v>545.1765965867978</v>
       </c>
       <c r="C28" t="n">
-        <v>437.6964226305955</v>
+        <v>545.1765965867978</v>
       </c>
       <c r="D28" t="n">
-        <v>287.5797832182596</v>
+        <v>395.0599571744621</v>
       </c>
       <c r="E28" t="n">
-        <v>287.5797832182596</v>
+        <v>395.0599571744621</v>
       </c>
       <c r="F28" t="n">
-        <v>140.6898357203493</v>
+        <v>248.1700096765517</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6415,19 +6415,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.78763177146</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655735</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286129</v>
+        <v>954.8146123150549</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305955</v>
+        <v>726.8250614170375</v>
       </c>
       <c r="Y28" t="n">
-        <v>437.6964226305955</v>
+        <v>726.8250614170375</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>583.6915747572962</v>
+        <v>439.5324299542182</v>
       </c>
       <c r="C31" t="n">
-        <v>583.6915747572962</v>
+        <v>326.3571123076821</v>
       </c>
       <c r="D31" t="n">
-        <v>489.3358006263313</v>
+        <v>232.001338176717</v>
       </c>
       <c r="E31" t="n">
-        <v>397.1835723253089</v>
+        <v>232.001338176717</v>
       </c>
       <c r="F31" t="n">
-        <v>306.0544901087694</v>
+        <v>232.001338176717</v>
       </c>
       <c r="G31" t="n">
-        <v>193.6400337099608</v>
+        <v>232.001338176717</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>137.3441950060311</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
         <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.811824899271</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1712.787274970148</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1479.419501465077</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.495878540561</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.839573784971</v>
+        <v>902.680428981893</v>
       </c>
       <c r="X31" t="n">
-        <v>874.6108881683244</v>
+        <v>730.4517433652464</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.5791743061651</v>
+        <v>565.4200295030871</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6719,7 +6719,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6926,28 +6926,28 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,19 +7093,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
@@ -7169,7 +7169,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7181,43 +7181,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1427.741252113634</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1757.603879777666</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O39" t="n">
-        <v>2037.143944996363</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7357,16 +7357,16 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
@@ -7412,10 +7412,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229666</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,19 +7582,19 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,22 +8769,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>124.340078086323</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9006,16 +9006,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>80.50021372615265</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>272.8719470256807</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776741</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>444.4889386861659</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208057</v>
+        <v>113.6026921294543</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711655</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>414.5002179180839</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10908,22 +10908,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>76.43196988338514</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622824</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711655</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>134.4977453535108</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>52.26914989715699</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.6060616385585</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>78.54216539558276</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>124.6166433962681</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>27.22654370589132</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>167.1443537485704</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24127,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>47.32565823185759</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>96.71831422505433</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>54.96760140130554</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,25 +24412,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>130.9324435904743</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>123.4555516459151</v>
+        <v>17.05017942927444</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675362</v>
@@ -24652,10 +24652,10 @@
         <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>53.46784774751581</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>15.49015632542718</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854970.3543669374</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854970.3543669373</v>
+        <v>854970.3543669375</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.230645907</v>
       </c>
       <c r="I2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
-        <v>549209.8854161144</v>
+        <v>549209.8854161142</v>
       </c>
       <c r="L2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="M2" t="n">
         <v>554203.1946583908</v>
       </c>
       <c r="N2" t="n">
+        <v>554203.1946583905</v>
+      </c>
+      <c r="O2" t="n">
         <v>554203.1946583906</v>
       </c>
-      <c r="O2" t="n">
-        <v>554203.1946583907</v>
-      </c>
       <c r="P2" t="n">
-        <v>554203.1946583907</v>
+        <v>554203.1946583909</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086669</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.6053028457</v>
       </c>
     </row>
     <row r="4">
@@ -26421,13 +26421,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
         <v>15045.66962143911</v>
@@ -26442,22 +26442,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563564</v>
+        <v>33210.29213563561</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275954</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="M4" t="n">
-        <v>37464.45686275954</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275958</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26479,22 +26479,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
@@ -26503,13 +26503,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275398.7208707853</v>
+        <v>-275398.7208707854</v>
       </c>
       <c r="C6" t="n">
-        <v>314569.1583437594</v>
+        <v>314569.1583437591</v>
       </c>
       <c r="D6" t="n">
-        <v>314569.1583437588</v>
+        <v>314569.158343759</v>
       </c>
       <c r="E6" t="n">
-        <v>-104303.8014011453</v>
+        <v>-104401.2605271169</v>
       </c>
       <c r="F6" t="n">
-        <v>420856.2350757512</v>
+        <v>420758.7759497791</v>
       </c>
       <c r="G6" t="n">
-        <v>420856.235075751</v>
+        <v>420758.7759497792</v>
       </c>
       <c r="H6" t="n">
-        <v>420856.235075751</v>
+        <v>420758.775949779</v>
       </c>
       <c r="I6" t="n">
-        <v>420856.2350757509</v>
+        <v>420758.7759497789</v>
       </c>
       <c r="J6" t="n">
-        <v>244433.0158831581</v>
+        <v>244335.5567571862</v>
       </c>
       <c r="K6" t="n">
-        <v>375208.7794474103</v>
+        <v>375190.2857094758</v>
       </c>
       <c r="L6" t="n">
-        <v>408680.7251747391</v>
+        <v>408680.725174739</v>
       </c>
       <c r="M6" t="n">
         <v>284222.6167417687</v>
       </c>
       <c r="N6" t="n">
-        <v>419023.6319756056</v>
+        <v>419023.6319756055</v>
       </c>
       <c r="O6" t="n">
         <v>419023.6319756057</v>
       </c>
       <c r="P6" t="n">
-        <v>374861.0266727601</v>
+        <v>374861.0266727603</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964065</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,34 +26735,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>52.52765547913293</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>82.85718120047547</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>277.7355775855547</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>67.55345041171341</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>40.00391793184843</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>197.6620873047944</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>184.0550285887357</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>61.95678475475466</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>120.105142606069</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>192.4254892562131</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28561,22 +28561,22 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30229,10 +30229,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32947,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33184,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>274.9155166742622</v>
+        <v>241.8130382709607</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>168.5132465112268</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>583.2963240761469</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091989</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>754.9133157366322</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
@@ -36768,10 +36768,10 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187473</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523304</v>
+        <v>320.696107060979</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412265</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043187</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37160,16 +37160,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,7 +37391,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>724.9245949685502</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>283.5253848149098</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313024</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37871,16 +37871,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>341.5911602850355</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
